--- a/VS680_Scripts/monkey/Android稳定性测试用例(VS680陈广涛).xlsx
+++ b/VS680_Scripts/monkey/Android稳定性测试用例(VS680陈广涛).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\VS680_Scripts\monkey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\monkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E018F-56C5-4156-896A-E213BA6A715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB9885B-26E4-4C50-A07A-AC091F7F5B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="3615" windowWidth="11850" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试报告" sheetId="1" r:id="rId1"/>
@@ -515,6 +515,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,77 +566,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,24 +882,24 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
@@ -910,74 +910,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -986,55 +986,55 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1063,61 +1063,61 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="41.625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
     <col min="5" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="272.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" ht="272.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1139,62 +1139,62 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="14.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="215.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1215,106 +1215,106 @@
       <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="12.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1338,63 +1338,63 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="53.125" customWidth="1"/>
+    <col min="1" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>53</v>
       </c>
     </row>
